--- a/public/template/template-import.xlsx
+++ b/public/template/template-import.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -77,9 +77,6 @@
     <t>PN-001</t>
   </si>
   <si>
-    <t>DOC-001</t>
-  </si>
-  <si>
     <t>Char A</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>PN-002</t>
   </si>
   <si>
-    <t>DOC-002</t>
-  </si>
-  <si>
     <t>Char B</t>
   </si>
   <si>
@@ -144,6 +138,9 @@
   </si>
   <si>
     <t>LIMIT SAMPLE</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -241,9 +238,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,6 +249,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -594,7 +591,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F4" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,13 +614,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="C1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -674,97 +671,97 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="L4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
